--- a/outputs/COVID-19_Trial-1_Stage-2_duplicate-secondary_Decoded_JYI.xlsx
+++ b/outputs/COVID-19_Trial-1_Stage-2_duplicate-secondary_Decoded_JYI.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="106">
   <si>
     <t xml:space="preserve">Exp 1 </t>
   </si>
@@ -76,6 +76,144 @@
   </si>
   <si>
     <t>exhaustive</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>11,13,15,33,40,</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>6,13,17,27,36,</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>13,33,</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>17,27,</t>
   </si>
   <si>
     <t>N</t>
@@ -261,7 +399,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -283,11 +421,25 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -321,6 +473,20 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -647,7 +813,7 @@
     <col min="4" max="4" width="13" bestFit="true" customWidth="true"/>
     <col min="6" max="7" width="10.5" bestFit="true" customWidth="true"/>
     <col min="11" max="11" width="8.625" style="7" customWidth="true"/>
-    <col min="12" max="12" width="17.3984375" style="7" customWidth="true"/>
+    <col min="12" max="12" width="15.22265625" style="7" customWidth="true"/>
     <col min="13" max="13" width="13.625" style="8" customWidth="true"/>
     <col min="14" max="14" width="14.22265625" style="8" customWidth="true"/>
     <col min="10" max="10" width="6.32421875" customWidth="true"/>
@@ -726,14 +892,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="K3" s="11">
+        <v>2.5790110578471653e-14</v>
+      </c>
+      <c r="L3" s="11">
         <v>4.5809268091352152e-14</v>
       </c>
-      <c r="L3" s="11"/>
       <c r="M3" s="12" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="N3" s="12">
         <v>0</v>
@@ -749,13 +917,16 @@
         <v>2</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="K4" s="11">
+        <v>3.1109284974093179e-14</v>
+      </c>
+      <c r="L4" s="7">
         <v>3.0913720180317097e-14</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="N4" s="8">
         <v>0</v>
@@ -771,14 +942,16 @@
         <v>3</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="K5" s="11">
+        <v>4.2221647974063366e-14</v>
+      </c>
+      <c r="L5" s="11">
         <v>4.0589191127772098e-14</v>
       </c>
-      <c r="L5" s="11"/>
       <c r="M5" s="12" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="N5" s="8">
         <v>0</v>
@@ -794,14 +967,16 @@
         <v>4</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="K6" s="11">
+        <v>4.3628551522560675e-14</v>
+      </c>
+      <c r="L6" s="11">
         <v>3.7855683017679045e-14</v>
       </c>
-      <c r="L6" s="11"/>
       <c r="M6" s="12" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="N6" s="12">
         <v>0</v>
@@ -815,14 +990,16 @@
         <v>5</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="K7" s="11">
+        <v>4.5026475832897616e-14</v>
+      </c>
+      <c r="L7" s="11">
         <v>3.4354401317113737e-14</v>
       </c>
-      <c r="L7" s="11"/>
       <c r="M7" s="12" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="N7" s="12">
         <v>0</v>
@@ -838,14 +1015,16 @@
         <v>6</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="K8" s="11">
+        <v>2.4111478136386588e-14</v>
+      </c>
+      <c r="L8" s="11">
         <v>2.2700789686406728e-14</v>
       </c>
-      <c r="L8" s="11"/>
       <c r="M8" s="12" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="N8" s="8">
         <v>0</v>
@@ -861,14 +1040,16 @@
         <v>7</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="K9" s="11">
+        <v>2.1962524985907519e-14</v>
+      </c>
+      <c r="L9" s="11">
         <v>2.1189911641814032e-14</v>
       </c>
-      <c r="L9" s="11"/>
       <c r="M9" s="12" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="N9" s="12">
         <v>0</v>
@@ -884,14 +1065,16 @@
         <v>8</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="K10" s="11">
+        <v>3.9418419198938488e-14</v>
+      </c>
+      <c r="L10" s="11">
         <v>4.4001159648061466e-14</v>
       </c>
-      <c r="L10" s="11"/>
       <c r="M10" s="12" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="N10" s="12">
         <v>0</v>
@@ -905,14 +1088,16 @@
         <v>9</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="K11" s="11">
+        <v>4.0675642300532679e-14</v>
+      </c>
+      <c r="L11" s="11">
         <v>4.2293421847091814e-14</v>
       </c>
-      <c r="L11" s="11"/>
       <c r="M11" s="12" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="N11" s="12">
         <v>0</v>
@@ -928,13 +1113,16 @@
         <v>10</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="K12" s="11">
+        <v>9.8357719740381866e-15</v>
+      </c>
+      <c r="L12" s="7">
         <v>4.1709330239204728e-14</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="N12" s="12">
         <v>0</v>
@@ -950,13 +1138,16 @@
         <v>11</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="K13" s="11">
+        <v>235.28924439231159</v>
+      </c>
+      <c r="L13" s="7">
         <v>434.79630938953392</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="N13" s="12">
         <v>0.00042675790657547077</v>
@@ -972,14 +1163,16 @@
         <v>12</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="K14" s="11">
+        <v>1.0662041865809111e-13</v>
+      </c>
+      <c r="L14" s="11">
         <v>4.1040215236944067e-14</v>
       </c>
-      <c r="L14" s="11"/>
       <c r="M14" s="12" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="N14" s="12">
         <v>0</v>
@@ -993,13 +1186,16 @@
         <v>13</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="K15" s="11">
+        <v>2.3128972826371126e-10</v>
+      </c>
+      <c r="L15" s="7">
         <v>3600.5670887788183</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="N15" s="8">
         <v>178149.062114575</v>
@@ -1015,14 +1211,16 @@
         <v>14</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="K16" s="11">
+        <v>2.5540260320016851e-14</v>
+      </c>
+      <c r="L16" s="11">
         <v>2.2922345132547179e-14</v>
       </c>
-      <c r="L16" s="11"/>
       <c r="M16" s="12" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="N16" s="12">
         <v>0</v>
@@ -1036,13 +1234,16 @@
         <v>15</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="K17" s="7">
+        <v>1463626.8337161448</v>
+      </c>
+      <c r="L17" s="7">
         <v>18354129.898904897</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="N17" s="12">
         <v>5038375.1739211231</v>
@@ -1058,13 +1259,16 @@
         <v>16</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="K18" s="11">
+        <v>3.1804757151307835e-14</v>
+      </c>
+      <c r="L18" s="7">
         <v>2.8089326752879475e-14</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="N18" s="12">
         <v>0</v>
@@ -1082,14 +1286,16 @@
         <v>17</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="K19" s="11">
+        <v>2.5130109880163883e-14</v>
+      </c>
+      <c r="L19" s="11">
         <v>2.1856705387512737e-14</v>
       </c>
-      <c r="L19" s="11"/>
       <c r="M19" s="12" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="N19" s="8">
         <v>0</v>
@@ -1100,14 +1306,16 @@
         <v>18</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="K20" s="11">
+        <v>5.5133361163712248e-14</v>
+      </c>
+      <c r="L20" s="11">
         <v>5.0678029321991653e-14</v>
       </c>
-      <c r="L20" s="11"/>
       <c r="M20" s="12" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="N20" s="12">
         <v>0</v>
@@ -1118,14 +1326,16 @@
         <v>19</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="K21" s="11">
+        <v>3.3679934362278035e-14</v>
+      </c>
+      <c r="L21" s="11">
         <v>3.1512481036264439e-14</v>
       </c>
-      <c r="L21" s="11"/>
       <c r="M21" s="12" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="N21" s="12">
         <v>0</v>
@@ -1136,14 +1346,16 @@
         <v>20</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="K22" s="11">
+        <v>2.4628410095387534e-14</v>
+      </c>
+      <c r="L22" s="11">
         <v>2.1889634621533661e-14</v>
       </c>
-      <c r="L22" s="11"/>
       <c r="M22" s="12" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="N22" s="8">
         <v>0</v>
@@ -1154,14 +1366,16 @@
         <v>21</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="K23" s="11">
+        <v>4.4634220669515217e-14</v>
+      </c>
+      <c r="L23" s="11">
         <v>4.3044195604313543e-14</v>
       </c>
-      <c r="L23" s="11"/>
       <c r="M23" s="12" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="N23" s="12">
         <v>0</v>
@@ -1172,14 +1386,16 @@
         <v>22</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="K24" s="11">
+        <v>2.4163136841047612e-14</v>
+      </c>
+      <c r="L24" s="11">
         <v>2.3600781773423036e-14</v>
       </c>
-      <c r="L24" s="11"/>
       <c r="M24" s="12" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="N24" s="12">
         <v>0</v>
@@ -1190,14 +1406,16 @@
         <v>23</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="K25" s="11">
+        <v>2.6684319358845232e-14</v>
+      </c>
+      <c r="L25" s="11">
         <v>2.7214062698134561e-14</v>
       </c>
-      <c r="L25" s="11"/>
       <c r="M25" s="12" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="N25" s="12">
         <v>0</v>
@@ -1208,14 +1426,16 @@
         <v>24</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="K26" s="11">
+        <v>2.2332031907639816e-14</v>
+      </c>
+      <c r="L26" s="11">
         <v>2.1664826152793404e-14</v>
       </c>
-      <c r="L26" s="11"/>
       <c r="M26" s="12" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="N26" s="12">
         <v>0</v>
@@ -1226,14 +1446,16 @@
         <v>25</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="K27" s="11">
+        <v>6.202000437108163e-15</v>
+      </c>
+      <c r="L27" s="11">
         <v>1.8007535398825972e-14</v>
       </c>
-      <c r="L27" s="11"/>
       <c r="M27" s="12" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="N27" s="12">
         <v>0</v>
@@ -1244,13 +1466,16 @@
         <v>26</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="K28" s="11">
+        <v>3.1558472615390812e-14</v>
+      </c>
+      <c r="L28" s="7">
         <v>3.5729516520557423e-14</v>
       </c>
       <c r="M28" s="12" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="N28" s="12">
         <v>0</v>
@@ -1261,14 +1486,16 @@
         <v>27</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="K29" s="11">
+        <v>3.7107885819989333e-14</v>
+      </c>
+      <c r="L29" s="11">
         <v>3.946463749408308e-14</v>
       </c>
-      <c r="L29" s="11"/>
       <c r="M29" s="12" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="N29" s="8">
         <v>0</v>
@@ -1279,13 +1506,16 @@
         <v>28</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="K30" s="11">
+        <v>3.0973583094875769e-14</v>
+      </c>
+      <c r="L30" s="7">
         <v>2.8889345223598144e-14</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="N30" s="12">
         <v>0</v>
@@ -1296,14 +1526,16 @@
         <v>29</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="K31" s="11">
+        <v>9.1881569893633445e-14</v>
+      </c>
+      <c r="L31" s="11">
         <v>4.0380165664902044e-14</v>
       </c>
-      <c r="L31" s="11"/>
       <c r="M31" s="12" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="N31" s="12">
         <v>0</v>
@@ -1314,13 +1546,16 @@
         <v>30</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="K32" s="11">
+        <v>3.3158308221098157e-14</v>
+      </c>
+      <c r="L32" s="7">
         <v>2.7538459243070469e-14</v>
       </c>
       <c r="M32" s="12" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="N32" s="12">
         <v>0</v>
@@ -1331,14 +1566,16 @@
         <v>31</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="K33" s="11">
+        <v>2.5490612073732258e-14</v>
+      </c>
+      <c r="L33" s="11">
         <v>2.1544940574357252e-14</v>
       </c>
-      <c r="L33" s="11"/>
       <c r="M33" s="12" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="N33" s="12">
         <v>0</v>
@@ -1349,13 +1586,16 @@
         <v>32</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="K34" s="11">
+        <v>3.2254776820250034e-14</v>
+      </c>
+      <c r="L34" s="7">
         <v>2.8369801231006406e-14</v>
       </c>
       <c r="M34" s="12" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="N34" s="12">
         <v>0</v>
@@ -1366,13 +1606,16 @@
         <v>33</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="K35" s="11">
+        <v>1.4161412575194457e-11</v>
+      </c>
+      <c r="L35" s="7">
         <v>3600.5670887771234</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="N35" s="12">
         <v>0.00033100543229734256</v>
@@ -1383,14 +1626,16 @@
         <v>34</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="K36" s="11">
+        <v>2.1055912381130931e-14</v>
+      </c>
+      <c r="L36" s="11">
         <v>2.4693610207279135e-14</v>
       </c>
-      <c r="L36" s="11"/>
       <c r="M36" s="12" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="N36" s="12">
         <v>0</v>
@@ -1401,13 +1646,16 @@
         <v>35</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="K37" s="11">
+        <v>3.1391951170082363e-14</v>
+      </c>
+      <c r="L37" s="7">
         <v>3.3935524973285859e-14</v>
       </c>
       <c r="M37" s="12" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="N37" s="12">
         <v>0</v>
@@ -1418,14 +1666,16 @@
         <v>36</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="K38" s="11">
+        <v>5.6563317939106536e-14</v>
+      </c>
+      <c r="L38" s="11">
         <v>4.175587111746589e-14</v>
       </c>
-      <c r="L38" s="11"/>
       <c r="M38" s="12" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="N38" s="8">
         <v>0</v>
@@ -1436,14 +1686,16 @@
         <v>37</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="K39" s="11">
+        <v>2.598293492684946e-14</v>
+      </c>
+      <c r="L39" s="11">
         <v>2.8063292189850998e-14</v>
       </c>
-      <c r="L39" s="11"/>
       <c r="M39" s="12" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="N39" s="12">
         <v>0</v>
@@ -1461,14 +1713,16 @@
         <v>38</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="K40" s="11">
+        <v>2.2067354258988599e-14</v>
+      </c>
+      <c r="L40" s="11">
         <v>1.9309324143886302e-14</v>
       </c>
-      <c r="L40" s="11"/>
       <c r="M40" s="12" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="N40" s="12">
         <v>0</v>
@@ -1486,14 +1740,16 @@
         <v>39</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="K41" s="11">
+        <v>3.7309397412146497e-14</v>
+      </c>
+      <c r="L41" s="11">
         <v>4.5593644863309468e-14</v>
       </c>
-      <c r="L41" s="11"/>
       <c r="M41" s="12" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="N41" s="12">
         <v>0</v>
@@ -1511,13 +1767,16 @@
         <v>40</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="K42" s="11">
+        <v>14838.837792975466</v>
+      </c>
+      <c r="L42" s="7">
         <v>178213.4576474221</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="N42" s="12">
         <v>27600.806217708876</v>
@@ -1532,10 +1791,10 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="J43" s="0" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" x14ac:dyDescent="0.3">
@@ -1587,14 +1846,16 @@
         <v>1</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="K45" s="11">
+        <v>1.37059827090305e-12</v>
+      </c>
+      <c r="L45" s="11">
         <v>1.3195287720960389e-12</v>
       </c>
-      <c r="L45" s="11"/>
       <c r="M45" s="12" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="N45" s="8">
         <v>0</v>
@@ -1610,13 +1871,16 @@
         <v>2</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="K46" s="11">
+        <v>1.6796002882761701e-12</v>
+      </c>
+      <c r="L46" s="7">
         <v>1.6804637251555839e-12</v>
       </c>
       <c r="M46" s="8" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="N46" s="8">
         <v>0</v>
@@ -1630,13 +1894,16 @@
         <v>3</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="K47" s="11">
+        <v>1.5696685488119862e-12</v>
+      </c>
+      <c r="L47" s="7">
         <v>1.5702029855004464e-12</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="N47" s="8">
         <v>0</v>
@@ -1652,14 +1919,16 @@
         <v>4</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="K48" s="11">
+        <v>1.2068468535515804e-12</v>
+      </c>
+      <c r="L48" s="11">
         <v>1.1604011280461302e-12</v>
       </c>
-      <c r="L48" s="11"/>
       <c r="M48" s="12" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="N48" s="8">
         <v>0</v>
@@ -1675,14 +1944,16 @@
         <v>5</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="K49" s="11">
+        <v>1.2175752961793847e-12</v>
+      </c>
+      <c r="L49" s="11">
         <v>1.1492062220357728e-12</v>
       </c>
-      <c r="L49" s="11"/>
       <c r="M49" s="12" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="N49" s="8">
         <v>0</v>
@@ -1696,13 +1967,16 @@
         <v>6</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="K50" s="11">
+        <v>891.28076685800568</v>
+      </c>
+      <c r="L50" s="7">
         <v>9518.415495062538</v>
       </c>
       <c r="M50" s="8" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="N50" s="8">
         <v>15874.326368742437</v>
@@ -1716,14 +1990,16 @@
         <v>7</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="K51" s="11">
+        <v>1.4622471685879089e-12</v>
+      </c>
+      <c r="L51" s="11">
         <v>1.3408229025751316e-12</v>
       </c>
-      <c r="L51" s="11"/>
       <c r="M51" s="12" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="N51" s="8">
         <v>0</v>
@@ -1739,14 +2015,16 @@
         <v>8</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="K52" s="11">
+        <v>1.7645040727722915e-12</v>
+      </c>
+      <c r="L52" s="11">
         <v>1.2991632290268595e-12</v>
       </c>
-      <c r="L52" s="11"/>
       <c r="M52" s="12" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="N52" s="8">
         <v>0</v>
@@ -1762,14 +2040,16 @@
         <v>9</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="K53" s="11">
+        <v>1.2999236173974396e-12</v>
+      </c>
+      <c r="L53" s="11">
         <v>1.2227452015584065e-12</v>
       </c>
-      <c r="L53" s="11"/>
       <c r="M53" s="12" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="N53" s="8">
         <v>0</v>
@@ -1783,14 +2063,16 @@
         <v>10</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="K54" s="11">
+        <v>1.0291252601277193e-12</v>
+      </c>
+      <c r="L54" s="11">
         <v>1.0425260705745956e-12</v>
       </c>
-      <c r="L54" s="11"/>
       <c r="M54" s="12" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="N54" s="8">
         <v>0</v>
@@ -1806,14 +2088,16 @@
         <v>11</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="K55" s="11">
+        <v>1.8656559565982328e-12</v>
+      </c>
+      <c r="L55" s="11">
         <v>1.5477223755069146e-12</v>
       </c>
-      <c r="L55" s="11"/>
       <c r="M55" s="12" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="N55" s="8">
         <v>0</v>
@@ -1829,14 +2113,16 @@
         <v>12</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="K56" s="11">
+        <v>2.5720000998714235e-12</v>
+      </c>
+      <c r="L56" s="11">
         <v>2.5640552043899092e-12</v>
       </c>
-      <c r="L56" s="11"/>
       <c r="M56" s="12" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="N56" s="8">
         <v>0</v>
@@ -1850,13 +2136,16 @@
         <v>13</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="K57" s="11">
+        <v>116084.90185064131</v>
+      </c>
+      <c r="L57" s="7">
         <v>1963985.5542026055</v>
       </c>
       <c r="M57" s="8" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="N57" s="8">
         <v>504594.55939464277</v>
@@ -1872,14 +2161,16 @@
         <v>14</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="K58" s="11">
+        <v>1.727973400857417e-12</v>
+      </c>
+      <c r="L58" s="11">
         <v>1.5902044322008726e-12</v>
       </c>
-      <c r="L58" s="11"/>
       <c r="M58" s="12" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="N58" s="8">
         <v>0</v>
@@ -1895,14 +2186,16 @@
         <v>15</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="K59" s="11">
+        <v>1.5416674038074889e-12</v>
+      </c>
+      <c r="L59" s="11">
         <v>1.5570018872227901e-12</v>
       </c>
-      <c r="L59" s="11"/>
       <c r="M59" s="12" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="N59" s="8">
         <v>0</v>
@@ -1918,14 +2211,16 @@
         <v>16</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="K60" s="11">
+        <v>1.7395576514329807e-12</v>
+      </c>
+      <c r="L60" s="11">
         <v>1.9034689050013864e-12</v>
       </c>
-      <c r="L60" s="11"/>
       <c r="M60" s="12" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="N60" s="8">
         <v>0</v>
@@ -1943,13 +2238,16 @@
         <v>17</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="K61" s="11">
+        <v>3.079443289009054e-10</v>
+      </c>
+      <c r="L61" s="7">
         <v>131885.34444888332</v>
       </c>
       <c r="M61" s="8" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="N61" s="8">
         <v>49530.721053144291</v>
@@ -1967,14 +2265,16 @@
         <v>18</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="K62" s="11">
+        <v>1.7105428683157511e-12</v>
+      </c>
+      <c r="L62" s="11">
         <v>1.7461281560711823e-12</v>
       </c>
-      <c r="L62" s="11"/>
       <c r="M62" s="12" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="N62" s="8">
         <v>0</v>
@@ -1992,14 +2292,16 @@
         <v>19</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="K63" s="11">
+        <v>3.875858156519847e-12</v>
+      </c>
+      <c r="L63" s="11">
         <v>4.0349267300159208e-12</v>
       </c>
-      <c r="L63" s="11"/>
       <c r="M63" s="12" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="N63" s="8">
         <v>0</v>
@@ -2017,13 +2319,16 @@
         <v>20</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="K64" s="11">
+        <v>1.5173102295359182e-12</v>
+      </c>
+      <c r="L64" s="7">
         <v>1.5215037146828538e-12</v>
       </c>
       <c r="M64" s="8" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="N64" s="12">
         <v>0</v>
@@ -2041,14 +2346,16 @@
         <v>21</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="K65" s="11">
+        <v>1.0545026983428765e-12</v>
+      </c>
+      <c r="L65" s="11">
         <v>1.0135318292709111e-12</v>
       </c>
-      <c r="L65" s="11"/>
       <c r="M65" s="12" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="N65" s="8">
         <v>0</v>
@@ -2066,14 +2373,16 @@
         <v>22</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="K66" s="11">
+        <v>2.4399524303040381e-12</v>
+      </c>
+      <c r="L66" s="11">
         <v>2.7272343617379526e-12</v>
       </c>
-      <c r="L66" s="11"/>
       <c r="M66" s="12" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="N66" s="8">
         <v>0</v>
@@ -2091,14 +2400,16 @@
         <v>23</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="K67" s="11">
+        <v>1.6826985756820448e-12</v>
+      </c>
+      <c r="L67" s="11">
         <v>1.7369432360707324e-12</v>
       </c>
-      <c r="L67" s="11"/>
       <c r="M67" s="12" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="N67" s="8">
         <v>0</v>
@@ -2116,14 +2427,16 @@
         <v>24</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="K68" s="11">
+        <v>3.4998387907728438e-12</v>
+      </c>
+      <c r="L68" s="11">
         <v>3.4089072529471786e-12</v>
       </c>
-      <c r="L68" s="11"/>
       <c r="M68" s="12" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="N68" s="8">
         <v>0</v>
@@ -2141,14 +2454,16 @@
         <v>25</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="K69" s="11">
+        <v>8.0504340238175986e-13</v>
+      </c>
+      <c r="L69" s="11">
         <v>7.7709780239319621e-13</v>
       </c>
-      <c r="L69" s="11"/>
       <c r="M69" s="12" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="N69" s="8">
         <v>0</v>
@@ -2166,14 +2481,16 @@
         <v>26</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="K70" s="11">
+        <v>3.2772893754168866e-12</v>
+      </c>
+      <c r="L70" s="11">
         <v>8.2929513140944586e-13</v>
       </c>
-      <c r="L70" s="11"/>
       <c r="M70" s="12" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="N70" s="8">
         <v>0</v>
@@ -2191,13 +2508,16 @@
         <v>27</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="K71" s="11">
+        <v>4.1711175341655491e-11</v>
+      </c>
+      <c r="L71" s="7">
         <v>131885.34444930078</v>
       </c>
       <c r="M71" s="8" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="N71" s="8">
         <v>2.7457189202459518e-05</v>
@@ -2215,14 +2535,16 @@
         <v>28</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="K72" s="11">
+        <v>1.8599022392799661e-12</v>
+      </c>
+      <c r="L72" s="11">
         <v>1.8009839233123768e-12</v>
       </c>
-      <c r="L72" s="11"/>
       <c r="M72" s="12" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="N72" s="8">
         <v>0</v>
@@ -2240,14 +2562,16 @@
         <v>29</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="K73" s="11">
+        <v>3.0513173137423421e-12</v>
+      </c>
+      <c r="L73" s="11">
         <v>2.9275436494662604e-12</v>
       </c>
-      <c r="L73" s="11"/>
       <c r="M73" s="12" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="N73" s="8">
         <v>0</v>
@@ -2265,14 +2589,16 @@
         <v>30</v>
       </c>
       <c r="J74" s="0" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="K74" s="11">
+        <v>1.8013313721099117e-12</v>
+      </c>
+      <c r="L74" s="11">
         <v>1.9017140596795725e-12</v>
       </c>
-      <c r="L74" s="11"/>
       <c r="M74" s="12" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="N74" s="8">
         <v>0</v>
@@ -2290,14 +2616,16 @@
         <v>31</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="K75" s="11">
+        <v>2.7092075308697545e-12</v>
+      </c>
+      <c r="L75" s="11">
         <v>2.576041928717913e-12</v>
       </c>
-      <c r="L75" s="11"/>
       <c r="M75" s="12" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="N75" s="8">
         <v>0</v>
@@ -2315,14 +2643,16 @@
         <v>32</v>
       </c>
       <c r="J76" s="0" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="K76" s="11">
+        <v>1.8294323195836362e-12</v>
+      </c>
+      <c r="L76" s="11">
         <v>1.8296203707020082e-12</v>
       </c>
-      <c r="L76" s="11"/>
       <c r="M76" s="12" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="N76" s="8">
         <v>0</v>
@@ -2340,14 +2670,16 @@
         <v>33</v>
       </c>
       <c r="J77" s="0" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="K77" s="11">
+        <v>2.7766108288434138e-12</v>
+      </c>
+      <c r="L77" s="11">
         <v>2.9348206076135874e-12</v>
       </c>
-      <c r="L77" s="11"/>
       <c r="M77" s="12" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="N77" s="8">
         <v>0</v>
@@ -2365,14 +2697,16 @@
         <v>34</v>
       </c>
       <c r="J78" s="0" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="K78" s="11">
+        <v>2.8381172968368408e-12</v>
+      </c>
+      <c r="L78" s="11">
         <v>2.8158947631112747e-12</v>
       </c>
-      <c r="L78" s="11"/>
       <c r="M78" s="12" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="N78" s="8">
         <v>0</v>
@@ -2390,14 +2724,16 @@
         <v>35</v>
       </c>
       <c r="J79" s="0" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="K79" s="11">
+        <v>1.732543806837441e-12</v>
+      </c>
+      <c r="L79" s="11">
         <v>1.7133339692024036e-12</v>
       </c>
-      <c r="L79" s="11"/>
       <c r="M79" s="12" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="N79" s="8">
         <v>0</v>
@@ -2415,13 +2751,16 @@
         <v>36</v>
       </c>
       <c r="J80" s="0" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="K80" s="11">
+        <v>86192.11596001983</v>
+      </c>
+      <c r="L80" s="7">
         <v>2320454.065928088</v>
       </c>
       <c r="M80" s="8" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="N80" s="8">
         <v>627089.37371772761</v>
@@ -2439,14 +2778,16 @@
         <v>37</v>
       </c>
       <c r="J81" s="0" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="K81" s="11">
+        <v>1.7050258217040973e-12</v>
+      </c>
+      <c r="L81" s="11">
         <v>1.4543112514643371e-12</v>
       </c>
-      <c r="L81" s="11"/>
       <c r="M81" s="12" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="N81" s="8">
         <v>0</v>
@@ -2464,14 +2805,16 @@
         <v>38</v>
       </c>
       <c r="J82" s="0" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="K82" s="11">
+        <v>1.7366074024975409e-12</v>
+      </c>
+      <c r="L82" s="11">
         <v>1.6329641397860888e-12</v>
       </c>
-      <c r="L82" s="11"/>
       <c r="M82" s="12" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="N82" s="8">
         <v>0</v>
@@ -2489,14 +2832,16 @@
         <v>39</v>
       </c>
       <c r="J83" s="0" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="K83" s="11">
+        <v>1.0540970697723119e-12</v>
+      </c>
+      <c r="L83" s="11">
         <v>1.0016960378259982e-12</v>
       </c>
-      <c r="L83" s="11"/>
       <c r="M83" s="12" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="N83" s="8">
         <v>0</v>
@@ -2514,14 +2859,16 @@
         <v>40</v>
       </c>
       <c r="J84" s="0" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="K84" s="11">
+        <v>2.612591507293915e-12</v>
+      </c>
+      <c r="L84" s="11">
         <v>2.8728743744682793e-12</v>
       </c>
-      <c r="L84" s="11"/>
       <c r="M84" s="12" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="N84" s="8">
         <v>0</v>
@@ -2536,10 +2883,10 @@
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="J85" s="0" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="M85" s="8" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
     </row>
     <row r="86" x14ac:dyDescent="0.3">
